--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESTUDOS\PUC\TCC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Atividade</t>
   </si>
@@ -116,12 +111,15 @@
   <si>
     <t>Observações</t>
   </si>
+  <si>
+    <t>em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,15 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,31 +530,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="111.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -576,7 +574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="60">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -594,8 +592,8 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6">
+      <c r="A3" s="14">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -607,8 +605,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,10 +619,12 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,8 +639,8 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,12 +655,12 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -674,12 +674,12 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6">
+      <c r="A8" s="11">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -693,12 +693,12 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6">
+      <c r="A9" s="11">
         <f t="shared" ref="A9:A12" si="0">A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -712,12 +712,12 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -731,12 +731,12 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:6">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -750,12 +750,12 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:6">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -769,12 +769,12 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:6">
+      <c r="A13" s="11">
         <f t="shared" ref="A13" si="1">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">

--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -112,7 +112,10 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado.</t>
+    <t>1. em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado. 
+2. onde estão definidas as regras de negocio - BR e mensagens MN?
+3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
+4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +557,7 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="174.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -605,7 +611,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="60">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -619,7 +625,7 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="17" t="s">
         <v>25</v>
       </c>
     </row>

--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Atividade</t>
   </si>
@@ -112,10 +112,14 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>1. em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado. 
-2. onde estão definidas as regras de negocio - BR e mensagens MN?
-3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
-4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
+    <t>% Concluída</t>
+  </si>
+  <si>
+    <t>UC07
+  1. em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado. 
+  2. onde estão definidas as regras de negocio - BR e mensagens MN?
+  3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
+  4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
   </si>
 </sst>
 </file>
@@ -544,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G18" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,10 +561,11 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="174.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="174.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -577,10 +582,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="60">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -596,9 +604,12 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="5"/>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <f>A2+1</f>
         <v>2</v>
@@ -609,9 +620,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="60">
+      <c r="F3" s="1"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -625,11 +637,10 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="10"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -644,8 +655,9 @@
         <v>1</v>
       </c>
       <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -660,8 +672,9 @@
         <v>1</v>
       </c>
       <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <f>A3+1</f>
         <v>3</v>
@@ -679,8 +692,9 @@
         <v>1</v>
       </c>
       <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="11">
         <f>A7+1</f>
         <v>4</v>
@@ -697,9 +711,10 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="5"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="11">
         <f t="shared" ref="A9:A12" si="0">A8+1</f>
         <v>5</v>
@@ -716,9 +731,10 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="5"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -735,9 +751,10 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="5"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -754,9 +771,10 @@
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="5"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -773,9 +791,10 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="5"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <f t="shared" ref="A13" si="1">A12+1</f>
         <v>9</v>
@@ -792,7 +811,8 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Atividade</t>
   </si>
@@ -120,6 +120,11 @@
   2. onde estão definidas as regras de negocio - BR e mensagens MN?
   3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
   4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
+  </si>
+  <si>
+    <t>UC07 - 0
+UC13 - 0
+UC17 - 0</t>
   </si>
 </sst>
 </file>
@@ -221,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +565,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G17:G18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,7 +618,9 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="17" t="s">
         <v>26</v>
       </c>
@@ -620,7 +636,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
@@ -637,7 +655,9 @@
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
@@ -654,7 +674,9 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
@@ -671,7 +693,9 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
@@ -691,7 +715,9 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
@@ -711,7 +737,9 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
@@ -731,7 +759,9 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
@@ -751,7 +781,9 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
@@ -771,7 +803,9 @@
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
@@ -791,7 +825,9 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
@@ -811,7 +847,9 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
       <c r="G13" s="10"/>
     </row>
   </sheetData>

--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -39,6 +39,75 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Diagramas de Seqüência</t>
+  </si>
+  <si>
+    <t>UC07 - Definir Fluxo de Aprovações</t>
+  </si>
+  <si>
+    <t>UC13 - Versionar Requisito</t>
+  </si>
+  <si>
+    <t>UC17 - Julgar Pacote</t>
+  </si>
+  <si>
+    <t>Lucas/Calegari</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir Fluxo Workflow </t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Desenvolver Diagrama de Estados</t>
+  </si>
+  <si>
+    <t>Desenvolver Lista de Riscos</t>
+  </si>
+  <si>
+    <t>Refinar Documento de Arquitetura de Software</t>
+  </si>
+  <si>
+    <t>Rodrigo/Lucas</t>
+  </si>
+  <si>
+    <t>1 e 2</t>
+  </si>
+  <si>
+    <t>Elaborar Planos de Teste (apenas dos Ucs do item 1)</t>
+  </si>
+  <si>
+    <t>Revisão dos Artefatos</t>
+  </si>
+  <si>
+    <t>Desenvolver Apresentação</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>% Concluída</t>
+  </si>
+  <si>
+    <t>UC07
+  1. em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado. 
+  2. onde estão definidas as regras de negocio - BR e mensagens MN?
+  3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
+  4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
+  </si>
+  <si>
+    <t>UC07 - 0
+UC13 - 0
+UC17 - 0</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Especificação dos casos de uso 
 </t>
@@ -48,90 +117,20 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>UC07 - Definir Fluxo de Aprovações
 UC13 - Versionar Requisito
 UC17 - Julgar Pacote</t>
     </r>
   </si>
-  <si>
-    <t>Diagramas de Seqüência</t>
-  </si>
-  <si>
-    <t>UC07 - Definir Fluxo de Aprovações</t>
-  </si>
-  <si>
-    <t>UC13 - Versionar Requisito</t>
-  </si>
-  <si>
-    <t>UC17 - Julgar Pacote</t>
-  </si>
-  <si>
-    <t>Lucas/Calegari</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir Fluxo Workflow </t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
-    <t>Desenvolver Diagrama de Estados</t>
-  </si>
-  <si>
-    <t>Desenvolver Lista de Riscos</t>
-  </si>
-  <si>
-    <t>Refinar Documento de Arquitetura de Software</t>
-  </si>
-  <si>
-    <t>Rodrigo/Lucas</t>
-  </si>
-  <si>
-    <t>1 e 2</t>
-  </si>
-  <si>
-    <t>Elaborar Planos de Teste (apenas dos Ucs do item 1)</t>
-  </si>
-  <si>
-    <t>Revisão dos Artefatos</t>
-  </si>
-  <si>
-    <t>Desenvolver Apresentação</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t>% Concluída</t>
-  </si>
-  <si>
-    <t>UC07
-  1. em precondições, informar que o usuário deve estar logado com perfil de gestor para que o caso de uso possa ser iniciado. 
-  2. onde estão definidas as regras de negocio - BR e mensagens MN?
-  3. O Gestor escolhe a quantidade de niveis que desejar. ex: 1000 niveis?
-  4. No 6.1 &lt;Nome do Ponto de Extensão&gt;? não deveria ter um nome?</t>
-  </si>
-  <si>
-    <t>UC07 - 0
-UC13 - 0
-UC17 - 0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,9 +142,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,62 +230,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,295 +567,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="174.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="75">
-      <c r="A2" s="5">
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="72">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6">
         <v>41506</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15">
+        <v>41507</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9">
-        <v>41507</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15">
+        <v>41508</v>
+      </c>
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>41508</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="D6" s="15">
         <v>41512</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11">
+      <c r="A7" s="17">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15">
         <v>41512</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="17">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D8" s="6">
         <v>41512</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="17">
         <f t="shared" ref="A9:A12" si="0">A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="6">
         <v>41512</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
+      <c r="B10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>41513</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="6">
         <v>41514</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="6">
         <v>41514</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11">
+      <c r="A13" s="17">
         <f t="shared" ref="A13" si="1">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="6">
         <v>41515</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/Atividades Terceira Entrega - PDP.xlsx
+++ b/trunk/Atividades Terceira Entrega - PDP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Atividade</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>UC07 - Definir Fluxo de Aprovações</t>
-  </si>
-  <si>
-    <t>UC13 - Versionar Requisito</t>
   </si>
   <si>
     <t>UC17 - Julgar Pacote</t>
@@ -106,6 +103,12 @@
     <t>UC07 - 0
 UC13 - 0
 UC17 - 0</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>UC13 - Manter Requisito</t>
   </si>
   <si>
     <r>
@@ -121,7 +124,7 @@
         <family val="2"/>
       </rPr>
       <t>UC07 - Definir Fluxo de Aprovações
-UC13 - Versionar Requisito
+UC13 - Manter Requisito
 UC17 - Julgar Pacote</t>
     </r>
   </si>
@@ -130,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -230,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,9 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,28 +271,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,7 +582,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -601,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="72">
@@ -612,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -624,117 +636,117 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13">
         <v>41507</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13">
+        <v>41508</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21"/>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15">
-        <v>41508</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13">
+        <v>41512</v>
+      </c>
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15">
-        <v>41512</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
         <v>41512</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>41512</v>
@@ -742,21 +754,21 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
+      <c r="F8" s="22">
+        <v>100</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <f t="shared" ref="A9:A12" si="0">A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>15</v>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>41512</v>
@@ -764,21 +776,21 @@
       <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6">
         <v>41513</v>
@@ -786,43 +798,43 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="F10" s="22">
+        <v>100</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="6">
         <v>41514</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="20">
+        <v>18</v>
+      </c>
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6">
         <v>41514</v>
@@ -830,21 +842,21 @@
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <f t="shared" ref="A13" si="1">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>22</v>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>41515</v>
@@ -852,64 +864,64 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
